--- a/results/mp/deberta/corona/confidence/210/stop-words-desired-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/210/stop-words-desired-0.15/avg_0.004_scores.xlsx
@@ -103,15 +103,15 @@
     <t>safety</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>gt</t>
   </si>
   <si>
@@ -124,13 +124,13 @@
     <t>help</t>
   </si>
   <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>relief</t>
   </si>
   <si>
     <t>join</t>
@@ -1119,13 +1119,13 @@
         <v>29</v>
       </c>
       <c r="K20">
-        <v>0.7412280701754386</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="L20">
-        <v>169</v>
+        <v>66</v>
       </c>
       <c r="M20">
-        <v>180</v>
+        <v>70</v>
       </c>
       <c r="N20">
         <v>0.9399999999999999</v>
@@ -1137,7 +1137,7 @@
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>59</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1145,25 +1145,25 @@
         <v>30</v>
       </c>
       <c r="K21">
-        <v>0.7333333333333333</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="L21">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="M21">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="N21">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="O21">
-        <v>0.06000000000000005</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P21" t="b">
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1171,25 +1171,25 @@
         <v>31</v>
       </c>
       <c r="K22">
-        <v>0.7111111111111111</v>
+        <v>0.7071129707112971</v>
       </c>
       <c r="L22">
-        <v>32</v>
+        <v>169</v>
       </c>
       <c r="M22">
-        <v>35</v>
+        <v>169</v>
       </c>
       <c r="N22">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>13</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1301,25 +1301,25 @@
         <v>36</v>
       </c>
       <c r="K27">
-        <v>0.636085626911315</v>
+        <v>0.632183908045977</v>
       </c>
       <c r="L27">
-        <v>208</v>
+        <v>55</v>
       </c>
       <c r="M27">
-        <v>221</v>
+        <v>57</v>
       </c>
       <c r="N27">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="O27">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P27" t="b">
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>119</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1327,25 +1327,25 @@
         <v>37</v>
       </c>
       <c r="K28">
-        <v>0.632183908045977</v>
+        <v>0.62</v>
       </c>
       <c r="L28">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="M28">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="N28">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O28">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1353,13 +1353,13 @@
         <v>38</v>
       </c>
       <c r="K29">
-        <v>0.62</v>
+        <v>0.611764705882353</v>
       </c>
       <c r="L29">
-        <v>31</v>
+        <v>208</v>
       </c>
       <c r="M29">
-        <v>31</v>
+        <v>208</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1371,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>19</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="10:17">
